--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Wnt5a</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.3979187290274</v>
+        <v>10.43424333333333</v>
       </c>
       <c r="H2">
-        <v>10.3979187290274</v>
+        <v>31.30273</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9711091978791583</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9711091978791584</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.67957182098999</v>
+        <v>2.500933333333333</v>
       </c>
       <c r="N2">
-        <v>1.67957182098999</v>
+        <v>7.5028</v>
       </c>
       <c r="O2">
-        <v>0.09157577006901858</v>
+        <v>0.129395502869887</v>
       </c>
       <c r="P2">
-        <v>0.09157577006901858</v>
+        <v>0.129395502869887</v>
       </c>
       <c r="Q2">
-        <v>17.46405129421847</v>
+        <v>26.09534696044444</v>
       </c>
       <c r="R2">
-        <v>17.46405129421847</v>
+        <v>234.858122644</v>
       </c>
       <c r="S2">
-        <v>0.09157577006901858</v>
+        <v>0.1256571630011463</v>
       </c>
       <c r="T2">
-        <v>0.09157577006901858</v>
+        <v>0.1256571630011463</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.3979187290274</v>
+        <v>10.43424333333333</v>
       </c>
       <c r="H3">
-        <v>10.3979187290274</v>
+        <v>31.30273</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9711091978791583</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9711091978791584</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.74610171986846</v>
+        <v>7.782607</v>
       </c>
       <c r="N3">
-        <v>7.74610171986846</v>
+        <v>23.347821</v>
       </c>
       <c r="O3">
-        <v>0.4223428978534471</v>
+        <v>0.4026634108880828</v>
       </c>
       <c r="P3">
-        <v>0.4223428978534471</v>
+        <v>0.4026634108880828</v>
       </c>
       <c r="Q3">
-        <v>80.54333614997162</v>
+        <v>81.20561520570332</v>
       </c>
       <c r="R3">
-        <v>80.54333614997162</v>
+        <v>730.8505368513299</v>
       </c>
       <c r="S3">
-        <v>0.4223428978534471</v>
+        <v>0.391030141962812</v>
       </c>
       <c r="T3">
-        <v>0.4223428978534471</v>
+        <v>0.3910301419628121</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.3979187290274</v>
+        <v>10.43424333333333</v>
       </c>
       <c r="H4">
-        <v>10.3979187290274</v>
+        <v>31.30273</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9711091978791583</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9711091978791584</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.45320023956502</v>
+        <v>4.565521</v>
       </c>
       <c r="N4">
-        <v>4.45320023956502</v>
+        <v>13.696563</v>
       </c>
       <c r="O4">
-        <v>0.2428030978570075</v>
+        <v>0.2362149673420707</v>
       </c>
       <c r="P4">
-        <v>0.2428030978570075</v>
+        <v>0.2362149673420707</v>
       </c>
       <c r="Q4">
-        <v>46.30401417508243</v>
+        <v>47.63775705744334</v>
       </c>
       <c r="R4">
-        <v>46.30401417508243</v>
+        <v>428.73981351699</v>
       </c>
       <c r="S4">
-        <v>0.2428030978570075</v>
+        <v>0.2293905274626099</v>
       </c>
       <c r="T4">
-        <v>0.2428030978570075</v>
+        <v>0.2293905274626099</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,309 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>10.43424333333333</v>
+      </c>
+      <c r="H5">
+        <v>31.30273</v>
+      </c>
+      <c r="I5">
+        <v>0.9711091978791583</v>
+      </c>
+      <c r="J5">
+        <v>0.9711091978791584</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4.478761333333333</v>
+      </c>
+      <c r="N5">
+        <v>13.436284</v>
+      </c>
+      <c r="O5">
+        <v>0.2317261188999595</v>
+      </c>
+      <c r="P5">
+        <v>0.2317261188999595</v>
+      </c>
+      <c r="Q5">
+        <v>46.73248558392444</v>
+      </c>
+      <c r="R5">
+        <v>420.5923702553199</v>
+      </c>
+      <c r="S5">
+        <v>0.2250313654525902</v>
+      </c>
+      <c r="T5">
+        <v>0.2250313654525902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.310422</v>
+      </c>
+      <c r="H6">
+        <v>0.9312659999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="J6">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.500933333333333</v>
+      </c>
+      <c r="N6">
+        <v>7.5028</v>
+      </c>
+      <c r="O6">
+        <v>0.129395502869887</v>
+      </c>
+      <c r="P6">
+        <v>0.129395502869887</v>
+      </c>
+      <c r="Q6">
+        <v>0.7763447271999999</v>
+      </c>
+      <c r="R6">
+        <v>6.987102544799999</v>
+      </c>
+      <c r="S6">
+        <v>0.003738339868740697</v>
+      </c>
+      <c r="T6">
+        <v>0.003738339868740697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.310422</v>
+      </c>
+      <c r="H7">
+        <v>0.9312659999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="J7">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>7.782607</v>
+      </c>
+      <c r="N7">
+        <v>23.347821</v>
+      </c>
+      <c r="O7">
+        <v>0.4026634108880828</v>
+      </c>
+      <c r="P7">
+        <v>0.4026634108880828</v>
+      </c>
+      <c r="Q7">
+        <v>2.415892430154</v>
+      </c>
+      <c r="R7">
+        <v>21.743031871386</v>
+      </c>
+      <c r="S7">
+        <v>0.01163326892527074</v>
+      </c>
+      <c r="T7">
+        <v>0.01163326892527074</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>10.3979187290274</v>
-      </c>
-      <c r="H5">
-        <v>10.3979187290274</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>4.46191461506733</v>
-      </c>
-      <c r="N5">
-        <v>4.46191461506733</v>
-      </c>
-      <c r="O5">
-        <v>0.2432782342205267</v>
-      </c>
-      <c r="P5">
-        <v>0.2432782342205267</v>
-      </c>
-      <c r="Q5">
-        <v>46.39462554332967</v>
-      </c>
-      <c r="R5">
-        <v>46.39462554332967</v>
-      </c>
-      <c r="S5">
-        <v>0.2432782342205267</v>
-      </c>
-      <c r="T5">
-        <v>0.2432782342205267</v>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.310422</v>
+      </c>
+      <c r="H8">
+        <v>0.9312659999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="J8">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.565521</v>
+      </c>
+      <c r="N8">
+        <v>13.696563</v>
+      </c>
+      <c r="O8">
+        <v>0.2362149673420707</v>
+      </c>
+      <c r="P8">
+        <v>0.2362149673420707</v>
+      </c>
+      <c r="Q8">
+        <v>1.417238159862</v>
+      </c>
+      <c r="R8">
+        <v>12.755143438758</v>
+      </c>
+      <c r="S8">
+        <v>0.006824439879460828</v>
+      </c>
+      <c r="T8">
+        <v>0.006824439879460828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.310422</v>
+      </c>
+      <c r="H9">
+        <v>0.9312659999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="J9">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.478761333333333</v>
+      </c>
+      <c r="N9">
+        <v>13.436284</v>
+      </c>
+      <c r="O9">
+        <v>0.2317261188999595</v>
+      </c>
+      <c r="P9">
+        <v>0.2317261188999595</v>
+      </c>
+      <c r="Q9">
+        <v>1.390306050616</v>
+      </c>
+      <c r="R9">
+        <v>12.512754455544</v>
+      </c>
+      <c r="S9">
+        <v>0.006694753447369345</v>
+      </c>
+      <c r="T9">
+        <v>0.006694753447369346</v>
       </c>
     </row>
   </sheetData>
